--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t>Fzd3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H2">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.205419388815098</v>
+        <v>0.2078313333333333</v>
       </c>
       <c r="N2">
-        <v>0.205419388815098</v>
+        <v>0.623494</v>
       </c>
       <c r="O2">
-        <v>0.08816794801080281</v>
+        <v>0.08621557350328635</v>
       </c>
       <c r="P2">
-        <v>0.08816794801080281</v>
+        <v>0.112461889302165</v>
       </c>
       <c r="Q2">
-        <v>0.04827260823620366</v>
+        <v>0.004050563409555555</v>
       </c>
       <c r="R2">
-        <v>0.04827260823620366</v>
+        <v>0.036455070686</v>
       </c>
       <c r="S2">
-        <v>0.08816794801080281</v>
+        <v>0.006117910936841476</v>
       </c>
       <c r="T2">
-        <v>0.08816794801080281</v>
+        <v>0.007980365896578351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H3">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.478807154662754</v>
+        <v>0.498127</v>
       </c>
       <c r="N3">
-        <v>0.478807154662754</v>
+        <v>1.494381</v>
       </c>
       <c r="O3">
-        <v>0.2055085674386124</v>
+        <v>0.206640184103479</v>
       </c>
       <c r="P3">
-        <v>0.2055085674386124</v>
+        <v>0.2695469573039334</v>
       </c>
       <c r="Q3">
-        <v>0.1125174713596836</v>
+        <v>0.009708329187666667</v>
       </c>
       <c r="R3">
-        <v>0.1125174713596836</v>
+        <v>0.08737496268900001</v>
       </c>
       <c r="S3">
-        <v>0.2055085674386124</v>
+        <v>0.014663316509394</v>
       </c>
       <c r="T3">
-        <v>0.2055085674386124</v>
+        <v>0.01912722042055682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -655,49 +658,359 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H4">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.64563814601145</v>
+        <v>0.016887</v>
       </c>
       <c r="N4">
-        <v>1.64563814601145</v>
+        <v>0.050661</v>
       </c>
       <c r="O4">
-        <v>0.7063234845505848</v>
+        <v>0.007005307459654767</v>
       </c>
       <c r="P4">
-        <v>0.7063234845505848</v>
+        <v>0.009137909545139137</v>
       </c>
       <c r="Q4">
-        <v>0.3867173686923392</v>
+        <v>0.0003291220009999999</v>
       </c>
       <c r="R4">
-        <v>0.3867173686923392</v>
+        <v>0.002962098009</v>
       </c>
       <c r="S4">
-        <v>0.7063234845505848</v>
+        <v>0.000497100992104697</v>
       </c>
       <c r="T4">
-        <v>0.7063234845505848</v>
+        <v>0.0006484317678863885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01948966666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.058469</v>
+      </c>
+      <c r="I5">
+        <v>0.07096062449330311</v>
+      </c>
+      <c r="J5">
+        <v>0.07096062449330311</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.6877555</v>
+      </c>
+      <c r="N5">
+        <v>3.375511</v>
+      </c>
+      <c r="O5">
+        <v>0.7001389349335798</v>
+      </c>
+      <c r="P5">
+        <v>0.6088532438487625</v>
+      </c>
+      <c r="Q5">
+        <v>0.03289379210983333</v>
+      </c>
+      <c r="R5">
+        <v>0.197362752659</v>
+      </c>
+      <c r="S5">
+        <v>0.04968229605496293</v>
+      </c>
+      <c r="T5">
+        <v>0.04320460640828155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.255165</v>
+      </c>
+      <c r="H6">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J6">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.2078313333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.623494</v>
+      </c>
+      <c r="O6">
+        <v>0.08621557350328635</v>
+      </c>
+      <c r="P6">
+        <v>0.112461889302165</v>
+      </c>
+      <c r="Q6">
+        <v>0.05303128217</v>
+      </c>
+      <c r="R6">
+        <v>0.47728153953</v>
+      </c>
+      <c r="S6">
+        <v>0.08009766256644486</v>
+      </c>
+      <c r="T6">
+        <v>0.1044815234055866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.255165</v>
+      </c>
+      <c r="H7">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J7">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.498127</v>
+      </c>
+      <c r="N7">
+        <v>1.494381</v>
+      </c>
+      <c r="O7">
+        <v>0.206640184103479</v>
+      </c>
+      <c r="P7">
+        <v>0.2695469573039334</v>
+      </c>
+      <c r="Q7">
+        <v>0.127104575955</v>
+      </c>
+      <c r="R7">
+        <v>1.143941183595</v>
+      </c>
+      <c r="S7">
+        <v>0.191976867594085</v>
+      </c>
+      <c r="T7">
+        <v>0.2504197368833766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.255165</v>
+      </c>
+      <c r="H8">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J8">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.016887</v>
+      </c>
+      <c r="N8">
+        <v>0.050661</v>
+      </c>
+      <c r="O8">
+        <v>0.007005307459654767</v>
+      </c>
+      <c r="P8">
+        <v>0.009137909545139137</v>
+      </c>
+      <c r="Q8">
+        <v>0.004308971354999999</v>
+      </c>
+      <c r="R8">
+        <v>0.038780742195</v>
+      </c>
+      <c r="S8">
+        <v>0.00650820646755007</v>
+      </c>
+      <c r="T8">
+        <v>0.008489477777252749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.255165</v>
+      </c>
+      <c r="H9">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J9">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.6877555</v>
+      </c>
+      <c r="N9">
+        <v>3.375511</v>
+      </c>
+      <c r="O9">
+        <v>0.7001389349335798</v>
+      </c>
+      <c r="P9">
+        <v>0.6088532438487625</v>
+      </c>
+      <c r="Q9">
+        <v>0.4306561321575</v>
+      </c>
+      <c r="R9">
+        <v>2.583936792945</v>
+      </c>
+      <c r="S9">
+        <v>0.6504566388786168</v>
+      </c>
+      <c r="T9">
+        <v>0.565648637440481</v>
       </c>
     </row>
   </sheetData>
